--- a/experiments_charts.xlsx
+++ b/experiments_charts.xlsx
@@ -765,6 +765,8 @@
         <c:axId val="198438480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="13"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -782,6 +784,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -878,6 +894,7 @@
         <c:crossAx val="197642896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="197642896"/>
@@ -3948,8 +3965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/experiments_charts.xlsx
+++ b/experiments_charts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>k</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>k\L</t>
   </si>
 </sst>
 </file>
@@ -532,8 +535,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -726,19 +732,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.61499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62</c:v>
+                  <c:v>0.64500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63500000000000001</c:v>
+                  <c:v>0.64749999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61</c:v>
+                  <c:v>0.62749999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6</c:v>
+                  <c:v>0.62749999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1195,6 +1201,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74750000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74750000000000005</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1219,7 +1240,9 @@
       <c:valAx>
         <c:axId val="197701808"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
+          <c:max val="21"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1333,6 +1356,8 @@
         <c:crossAx val="197984608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="3"/>
+        <c:minorUnit val="1.2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="197984608"/>
@@ -1340,7 +1365,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="r"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1553,9 +1578,10 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="340"/>
+      <c:rotX val="20"/>
+      <c:rotY val="310"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="50"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -1599,7 +1625,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>experiment6!$O$3</c:f>
+              <c:f>experiment6!$P$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1608,65 +1634,57 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln/>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>experiment6!$P$2:$T$2</c:f>
+              <c:f>experiment6!$Q$2:$U$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>experiment6!$P$3:$T$3</c:f>
+              <c:f>experiment6!$Q$3:$U$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.72499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.73750000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.74250000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.74250000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8571-45B7-AB49-1D282E2CC609}"/>
+              <c16:uniqueId val="{0000000F-EEEA-4400-83C4-BF7729CBF5F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1675,7 +1693,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>experiment6!$O$4</c:f>
+              <c:f>experiment6!$P$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1684,65 +1702,57 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln/>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>experiment6!$P$2:$T$2</c:f>
+              <c:f>experiment6!$Q$2:$U$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>experiment6!$P$4:$T$4</c:f>
+              <c:f>experiment6!$Q$4:$U$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.73499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.72750000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.72750000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8571-45B7-AB49-1D282E2CC609}"/>
+              <c16:uniqueId val="{00000010-EEEA-4400-83C4-BF7729CBF5F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1751,7 +1761,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>experiment6!$O$5</c:f>
+              <c:f>experiment6!$P$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1760,65 +1770,57 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln/>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>experiment6!$P$2:$T$2</c:f>
+              <c:f>experiment6!$Q$2:$U$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>experiment6!$P$5:$T$5</c:f>
+              <c:f>experiment6!$Q$5:$U$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.73750000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.73750000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.73750000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8571-45B7-AB49-1D282E2CC609}"/>
+              <c16:uniqueId val="{00000011-EEEA-4400-83C4-BF7729CBF5F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1827,7 +1829,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>experiment6!$O$6</c:f>
+              <c:f>experiment6!$P$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1836,256 +1838,129 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln/>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>experiment6!$P$2:$T$2</c:f>
+              <c:f>experiment6!$Q$2:$U$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>experiment6!$P$6:$T$6</c:f>
+              <c:f>experiment6!$Q$6:$U$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.73750000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.73250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.73250000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8571-45B7-AB49-1D282E2CC609}"/>
+              <c16:uniqueId val="{00000012-EEEA-4400-83C4-BF7729CBF5F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:bandFmts>
-          <c:bandFmt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="11"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="12"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="13"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="14"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-        </c:bandFmts>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>experiment6!$P$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>experiment6!$Q$2:$U$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>experiment6!$Q$7:$U$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74750000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74750000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-EEEA-4400-83C4-BF7729CBF5F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts/>
         <c:axId val="198009272"/>
         <c:axId val="198036576"/>
         <c:axId val="198069104"/>
@@ -2093,7 +1968,7 @@
       <c:catAx>
         <c:axId val="198009272"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2183,7 +2058,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="r"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3626,15 +3501,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>511452</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>120926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>282852</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>149500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3963,380 +3838,620 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C2">
-        <v>0.42</v>
-      </c>
-      <c r="E2">
+      <c r="B2" s="1">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="F2" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="J2" s="1">
         <v>1</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>1</v>
       </c>
-      <c r="P2">
-        <f>J18</f>
+      <c r="L2" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>7</v>
+      </c>
+      <c r="S2" s="1">
+        <v>13</v>
+      </c>
+      <c r="T2" s="1">
+        <v>17</v>
+      </c>
+      <c r="U2" s="1">
         <v>21</v>
       </c>
-      <c r="Q2">
-        <f>J14</f>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>L2</f>
+        <v>0.73</v>
+      </c>
+      <c r="R3" s="1">
+        <f>L7</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="S3" s="1">
+        <f>L12</f>
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="T3" s="1">
+        <f>L17</f>
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="U3" s="1">
+        <f>L22</f>
+        <v>0.74250000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.64749999999999996</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="E4" s="1">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="P4" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>L3</f>
+        <v>0.73</v>
+      </c>
+      <c r="R4" s="1">
+        <f>L8</f>
+        <v>0.73</v>
+      </c>
+      <c r="S4" s="1">
+        <f>L13</f>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" ref="T4:T7" si="0">L18</f>
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" ref="U4:U7" si="1">L23</f>
+        <v>0.72750000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.3725</v>
+      </c>
+      <c r="E5" s="1">
         <v>17</v>
       </c>
-      <c r="R2">
-        <f>J10</f>
+      <c r="F5" s="1">
+        <v>0.74750000000000005</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.2525</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>7</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="P5" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>L4</f>
+        <v>0.73</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" ref="R5:R7" si="2">L9</f>
+        <v>0.73</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" ref="S5:S7" si="3">L14</f>
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.73750000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>13</v>
       </c>
-      <c r="S2">
-        <f>J6</f>
+      <c r="B6" s="1">
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.3725</v>
+      </c>
+      <c r="E6" s="1">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.74750000000000005</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.2525</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>13</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="P6" s="1">
         <v>7</v>
       </c>
-      <c r="T2">
-        <f>J2</f>
+      <c r="Q6" s="1">
+        <f>L5</f>
+        <v>0.73</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.73</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.73250000000000004</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.73250000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J7" s="1">
+        <v>7</v>
+      </c>
+      <c r="K7" s="1">
         <v>1</v>
       </c>
+      <c r="L7" s="1">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="P7" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>L6</f>
+        <v>0.73</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.73</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74750000000000005</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.74750000000000005</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J8" s="1">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>0.62</v>
-      </c>
-      <c r="C3">
-        <v>0.38</v>
-      </c>
-      <c r="E3">
+      <c r="L8" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J9" s="1">
         <v>7</v>
       </c>
-      <c r="J3">
+      <c r="K9" s="1">
+        <v>5</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J10" s="1">
+        <v>7</v>
+      </c>
+      <c r="K10" s="1">
+        <v>7</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J11" s="1">
+        <v>7</v>
+      </c>
+      <c r="K11" s="1">
+        <v>13</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J12" s="1">
+        <v>13</v>
+      </c>
+      <c r="K12" s="1">
         <v>1</v>
       </c>
-      <c r="K3">
+      <c r="L12" s="1">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.26250000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J13" s="1">
+        <v>13</v>
+      </c>
+      <c r="K13" s="1">
         <v>3</v>
       </c>
-      <c r="O3">
-        <f>K2</f>
+      <c r="L13" s="1">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J14" s="1">
+        <v>13</v>
+      </c>
+      <c r="K14" s="1">
+        <v>5</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.26250000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J15" s="1">
+        <v>13</v>
+      </c>
+      <c r="K15" s="1">
+        <v>7</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.26250000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J16" s="1">
+        <v>13</v>
+      </c>
+      <c r="K16" s="1">
+        <v>13</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.26250000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J17" s="1">
+        <v>17</v>
+      </c>
+      <c r="K17" s="1">
         <v>1</v>
       </c>
-      <c r="P3">
-        <f>L18</f>
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <f>L14</f>
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <f>L10</f>
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <f>L6</f>
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <f>L2</f>
-        <v>0</v>
+      <c r="L17" s="1">
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.25750000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="18" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J18" s="1">
+        <v>17</v>
+      </c>
+      <c r="K18" s="1">
+        <v>3</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.27250000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J19" s="1">
+        <v>17</v>
+      </c>
+      <c r="K19" s="1">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="C4">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="E4">
+      <c r="L19" s="1">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.26250000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J20" s="1">
+        <v>17</v>
+      </c>
+      <c r="K20" s="1">
+        <v>7</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.73250000000000004</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.26750000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J21" s="1">
+        <v>17</v>
+      </c>
+      <c r="K21" s="1">
         <v>13</v>
       </c>
-      <c r="J4">
+      <c r="L21" s="1">
+        <v>0.74750000000000005</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.2525</v>
+      </c>
+    </row>
+    <row r="22" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J22" s="1">
+        <v>21</v>
+      </c>
+      <c r="K22" s="1">
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="L22" s="1">
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.25750000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J23" s="1">
+        <v>21</v>
+      </c>
+      <c r="K23" s="1">
+        <v>3</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.27250000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J24" s="1">
+        <v>21</v>
+      </c>
+      <c r="K24" s="1">
         <v>5</v>
       </c>
-      <c r="O4">
-        <f>K3</f>
-        <v>3</v>
-      </c>
-      <c r="P4">
-        <f t="shared" ref="P4:P6" si="0">L19</f>
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:Q6" si="1">L15</f>
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <f>L11</f>
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <f>L7</f>
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <f>L3</f>
-        <v>0</v>
+      <c r="L24" s="1">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="25" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J25" s="1">
+        <v>21</v>
+      </c>
+      <c r="K25" s="1">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>0.61</v>
-      </c>
-      <c r="C5">
-        <v>0.39</v>
-      </c>
-      <c r="E5">
-        <v>17</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>7</v>
-      </c>
-      <c r="O5">
-        <f>K4</f>
-        <v>5</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <f t="shared" ref="R5:R6" si="2">L12</f>
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <f>L8</f>
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <f>L4</f>
-        <v>0</v>
+      <c r="L25" s="1">
+        <v>0.73250000000000004</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.26750000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="26" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J26" s="1">
+        <v>21</v>
+      </c>
+      <c r="K26" s="1">
         <v>13</v>
       </c>
-      <c r="B6">
-        <v>0.6</v>
-      </c>
-      <c r="C6">
-        <v>0.4</v>
-      </c>
-      <c r="E6">
-        <v>21</v>
-      </c>
-      <c r="J6">
-        <v>7</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <f>K5</f>
-        <v>7</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <f>L9</f>
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <f>L5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="J7">
-        <v>7</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="J8">
-        <v>7</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="J9">
-        <v>7</v>
-      </c>
-      <c r="K9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="J10">
-        <v>13</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="J11">
-        <v>13</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="J12">
-        <v>13</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="J13">
-        <v>13</v>
-      </c>
-      <c r="K13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="J14">
-        <v>17</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="J15">
-        <v>17</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="J16">
-        <v>17</v>
-      </c>
-      <c r="K16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J17">
-        <v>17</v>
-      </c>
-      <c r="K17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J18">
-        <v>21</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J19">
-        <v>21</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J20">
-        <v>21</v>
-      </c>
-      <c r="K20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J21">
-        <v>21</v>
-      </c>
-      <c r="K21">
-        <v>7</v>
+      <c r="L26" s="1">
+        <v>0.74750000000000005</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.2525</v>
       </c>
     </row>
   </sheetData>
